--- a/Daejeon_People_Server/API Document.xlsx
+++ b/Daejeon_People_Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="145">
   <si>
     <t>Function Category</t>
   </si>
@@ -53,32 +53,22 @@
     <t>회원가입</t>
   </si>
   <si>
-    <t>핸드폰 인증번호 발송</t>
+    <t>이메일 인증번호 발송</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/signup/phone/demand</t>
+    <t>/signup/email/demand</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>number : String</t>
-  </si>
-  <si>
-    <t>핸드폰 번호 중복 시 fail</t>
-  </si>
-  <si>
-    <t>핸드폰 인증번호 확인</t>
-  </si>
-  <si>
-    <t>/signup/phone/verify</t>
-  </si>
-  <si>
-    <t>number : String
-code : String</t>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>이메일 중복 시 fail</t>
   </si>
   <si>
     <t>이메일 인증번호 확인</t>
@@ -102,6 +92,18 @@
 registration_id : String</t>
   </si>
   <si>
+    <t>핸드폰 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/phone/demand</t>
+  </si>
+  <si>
+    <t>number : String</t>
+  </si>
+  <si>
+    <t>핸드폰 번호 중복 시 fail</t>
+  </si>
+  <si>
     <t>ID 중복 체크</t>
   </si>
   <si>
@@ -111,16 +113,14 @@
     <t>id : String</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/email/demand</t>
-  </si>
-  <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>이메일 중복 시 fail</t>
+    <t>핸드폰 인증번호 확인</t>
+  </si>
+  <si>
+    <t>/signup/phone/verify</t>
+  </si>
+  <si>
+    <t>number : String
+code : String</t>
   </si>
   <si>
     <t>친구</t>
@@ -135,10 +135,26 @@
     <t>requester_id : String</t>
   </si>
   <si>
+    <t>사용자 검색</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/find_user</t>
+  </si>
+  <si>
+    <t>keyword : String</t>
+  </si>
+  <si>
+    <t>email : String
+name : String
+id : String
+friend_requested : boolean
+friend_recieved : boolean</t>
+  </si>
+  <si>
     <t>친구 요청 목록 조회</t>
-  </si>
-  <si>
-    <t>GET</t>
   </si>
   <si>
     <t>/friend/request</t>
@@ -151,6 +167,18 @@
 name : String</t>
   </si>
   <si>
+    <t>친구 요청</t>
+  </si>
+  <si>
+    <t>dst : String</t>
+  </si>
+  <si>
+    <t>친구 요청 수락</t>
+  </si>
+  <si>
+    <t>/friend/accept</t>
+  </si>
+  <si>
     <t>친구 목록</t>
   </si>
   <si>
@@ -170,47 +198,19 @@
     <t>/friend/delete</t>
   </si>
   <si>
-    <t>사용자 검색</t>
-  </si>
-  <si>
-    <t>/find_user</t>
-  </si>
-  <si>
-    <t>keyword : String</t>
-  </si>
-  <si>
-    <t>email : String
-name : String
-id : String
-friend_requested : boolean
-friend_recieved : boolean</t>
-  </si>
-  <si>
-    <t>친구 요청</t>
-  </si>
-  <si>
-    <t>dst : String</t>
-  </si>
-  <si>
-    <t>친구 요청 수락</t>
-  </si>
-  <si>
-    <t>/friend/accept</t>
-  </si>
-  <si>
     <t>위시리스트</t>
   </si>
   <si>
+    <t>위시리스트 추가</t>
+  </si>
+  <si>
+    <t>/wish</t>
+  </si>
+  <si>
+    <t>content_id : int</t>
+  </si>
+  <si>
     <t>위시리스트 조회</t>
-  </si>
-  <si>
-    <t>/wish</t>
-  </si>
-  <si>
-    <t>content_id : int</t>
-  </si>
-  <si>
-    <t>위시리스트 추가</t>
   </si>
   <si>
     <t>위시리스트에서 여행지 삭제</t>
@@ -296,6 +296,46 @@
     <t>topic : String</t>
   </si>
   <si>
+    <t>여행에 유저 초대</t>
+  </si>
+  <si>
+    <t>/travel/invite</t>
+  </si>
+  <si>
+    <t>dst : String
+topic : String
+msg : String</t>
+  </si>
+  <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>/map</t>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+  </si>
+  <si>
+    <t>이미 추가된 여행지일 경우 fail</t>
+  </si>
+  <si>
+    <t>여행 나가기</t>
+  </si>
+  <si>
+    <t>/travel/quit</t>
+  </si>
+  <si>
+    <t>지도에 추가된 핀포인트 조회</t>
+  </si>
+  <si>
+    <t>content_id : int
+title : String
+owner : String
+mapx : double
+mapy : double</t>
+  </si>
+  <si>
     <t>읽지 않은 채팅 기록 조회</t>
   </si>
   <si>
@@ -313,53 +353,7 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>여행 나가기</t>
-  </si>
-  <si>
-    <t>/travel/quit</t>
-  </si>
-  <si>
-    <t>지도에 추가된 핀포인트 조회</t>
-  </si>
-  <si>
-    <t>/map</t>
-  </si>
-  <si>
-    <t>content_id : int
-title : String
-owner : String
-mapx : double
-mapy : double</t>
-  </si>
-  <si>
-    <t>여행에 유저 초대</t>
-  </si>
-  <si>
-    <t>/travel/invite</t>
-  </si>
-  <si>
-    <t>dst : String
-topic : String
-msg : String</t>
-  </si>
-  <si>
-    <t>지도에 여행지 추가</t>
-  </si>
-  <si>
-    <t>topic : String
-content_id : int</t>
-  </si>
-  <si>
-    <t>이미 추가된 여행지일 경우 fail</t>
-  </si>
-  <si>
     <t>여행 모드</t>
-  </si>
-  <si>
-    <t>여행 초대 수락</t>
-  </si>
-  <si>
-    <t>/travel/accept</t>
   </si>
   <si>
     <t>활성화된 여행 리스트 조회</t>
@@ -372,9 +366,6 @@
 title : String
 last_idx : int
 (JSONArray)</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
   </si>
   <si>
     <t>여행 초대 거절</t>
@@ -395,19 +386,22 @@
 (JSONArray)</t>
   </si>
   <si>
+    <t>여행 초대 수락</t>
+  </si>
+  <si>
+    <t>/travel/accept</t>
+  </si>
+  <si>
     <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
   </si>
   <si>
     <t>title : String</t>
   </si>
   <si>
+    <t>여행 삭제</t>
+  </si>
+  <si>
     <t>아이디 찾기</t>
-  </si>
-  <si>
-    <t>인증번호 확인 후 이메일로 아이디 전송</t>
-  </si>
-  <si>
-    <t>/find/id/verify</t>
   </si>
   <si>
     <t>/find/id/demand</t>
@@ -420,16 +414,13 @@
     <t>입력한 데이터의 계정이 존재하지 않을 경우 fail</t>
   </si>
   <si>
+    <t>인증번호 확인 후 이메일로 아이디 전송</t>
+  </si>
+  <si>
+    <t>/find/id/verify</t>
+  </si>
+  <si>
     <t>사용자</t>
-  </si>
-  <si>
-    <t>프로필 사진 조회</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>프로필 이미지 파일</t>
   </si>
   <si>
     <t>ID 기반 사용자 정보 조회</t>
@@ -441,6 +432,26 @@
     <t>id : String
 phone_number : String
 email : String
+name : String</t>
+  </si>
+  <si>
+    <t>프로필 이미지 세팅</t>
+  </si>
+  <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
+    <t>png 이미지 파일</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>/mypage</t>
+  </si>
+  <si>
+    <t>email : String
+phone_number : String
 name : String</t>
   </si>
   <si>
@@ -455,24 +466,19 @@
 travel_req_count : int</t>
   </si>
   <si>
-    <t>마이페이지</t>
-  </si>
-  <si>
-    <t>/mypage</t>
-  </si>
-  <si>
-    <t>email : String
-phone_number : String
-name : String</t>
-  </si>
-  <si>
-    <t>프로필 이미지 세팅</t>
-  </si>
-  <si>
-    <t>png 이미지 파일</t>
+    <t>프로필 사진 조회</t>
+  </si>
+  <si>
+    <t>프로필 이미지 파일</t>
   </si>
   <si>
     <t>비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
+  </si>
+  <si>
+    <t>/find/password/verify</t>
   </si>
   <si>
     <t>/find/password/demand</t>
@@ -483,19 +489,24 @@
 name : String</t>
   </si>
   <si>
-    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
-  </si>
-  <si>
-    <t>/find/password/verify</t>
+    <t>미정</t>
+  </si>
+  <si>
+    <t>/test</t>
   </si>
   <si>
     <t>계정</t>
   </si>
   <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>/logout</t>
+    <t>비밀번호 변경</t>
+  </si>
+  <si>
+    <t>/change/password</t>
+  </si>
+  <si>
+    <t>id : String
+current_password : String
+new_password : String</t>
   </si>
   <si>
     <t>로그인</t>
@@ -513,15 +524,10 @@
 (key=UserSession)</t>
   </si>
   <si>
-    <t>비밀번호 변경</t>
-  </si>
-  <si>
-    <t>/change/password</t>
-  </si>
-  <si>
-    <t>id : String
-current_password : String
-new_password : String</t>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>/logout</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -642,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -691,23 +697,23 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="n">
         <v>201.0</v>
       </c>
@@ -718,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -729,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -759,7 +765,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -767,13 +773,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -782,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
         <v>201.0</v>
@@ -805,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -820,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>201.0</v>
@@ -835,7 +841,7 @@
         <v>204.0</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -893,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -905,7 +911,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
         <v>204.0</v>
@@ -919,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -943,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="n">
         <v>204.0</v>
@@ -957,13 +963,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -972,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
         <v>201.0</v>
@@ -995,34 +1001,34 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1033,14 +1039,14 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
@@ -1048,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
         <v>52</v>
       </c>
-      <c r="H13" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1086,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H14" t="n">
         <v>201.0</v>
@@ -1112,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1121,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -1136,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1150,7 +1156,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -1159,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -1174,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1399,7 +1405,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
@@ -1437,10 +1443,10 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1451,25 +1457,25 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
       <c r="H24" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -1478,10 +1484,10 @@
         <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1489,13 +1495,13 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1513,10 +1519,10 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K25" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1530,31 +1536,31 @@
         <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1565,13 +1571,13 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
         <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1589,13 +1595,13 @@
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="K27" t="n">
         <v>204.0</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1606,7 +1612,7 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1618,19 +1624,19 @@
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H28" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1641,13 +1647,13 @@
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1656,19 +1662,19 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="H29" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -1682,16 +1688,16 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -1703,10 +1709,10 @@
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1717,13 +1723,13 @@
         <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1755,13 +1761,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -1770,19 +1776,19 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="H32" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="K32" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1793,31 +1799,31 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
@@ -1831,22 +1837,22 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
         <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
       </c>
       <c r="H34" t="n">
         <v>201.0</v>
@@ -1861,7 +1867,7 @@
         <v>204.0</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -1869,13 +1875,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -1884,7 +1890,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="H35" t="n">
         <v>201.0</v>
@@ -1899,7 +1905,7 @@
         <v>204.0</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1910,7 +1916,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
@@ -1922,10 +1928,10 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H36" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -1934,7 +1940,7 @@
         <v>117</v>
       </c>
       <c r="K36" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -1960,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="H37" t="n">
         <v>201.0</v>
@@ -1969,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -1989,7 +1995,7 @@
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2007,10 +2013,10 @@
         <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2021,13 +2027,13 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2048,7 +2054,7 @@
         <v>125</v>
       </c>
       <c r="K39" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2062,10 +2068,10 @@
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2074,19 +2080,19 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
         <v>127</v>
       </c>
-      <c r="H40" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>16</v>
-      </c>
       <c r="K40" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -2097,13 +2103,13 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -2112,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="H41" t="n">
         <v>201.0</v>
@@ -2127,7 +2133,7 @@
         <v>204.0</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -2135,22 +2141,22 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>131</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
         <v>132</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
       </c>
       <c r="H42" t="n">
         <v>201.0</v>
@@ -2165,7 +2171,7 @@
         <v>204.0</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -2173,42 +2179,42 @@
         <v>133</v>
       </c>
       <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>134</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>135</v>
-      </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="H43" t="n">
-        <v>201.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="K43" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -2232,7 +2238,7 @@
         <v>201.0</v>
       </c>
       <c r="I44" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -2246,31 +2252,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>140</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
         <v>141</v>
       </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I45" t="s">
         <v>142</v>
-      </c>
-      <c r="H45" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -2279,6 +2285,44 @@
         <v>204.0</v>
       </c>
       <c r="L45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L46" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Daejeon_People_Server/API Document.xlsx
+++ b/Daejeon_People_Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="146">
   <si>
     <t>Function Category</t>
   </si>
@@ -53,22 +53,20 @@
     <t>회원가입</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
+    <t>핸드폰 인증번호 확인</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/signup/email/demand</t>
+    <t>/signup/phone/verify</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>이메일 중복 시 fail</t>
+    <t>number : String
+code : String</t>
   </si>
   <si>
     <t>이메일 인증번호 확인</t>
@@ -79,6 +77,15 @@
   <si>
     <t>email : String
 code : String</t>
+  </si>
+  <si>
+    <t>ID 중복 체크</t>
+  </si>
+  <si>
+    <t>/signup/id/check</t>
+  </si>
+  <si>
+    <t>id : String</t>
   </si>
   <si>
     <t>/signup</t>
@@ -92,6 +99,18 @@
 registration_id : String</t>
   </si>
   <si>
+    <t>이메일 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/email/demand</t>
+  </si>
+  <si>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>이메일 중복 시 fail</t>
+  </si>
+  <si>
     <t>핸드폰 인증번호 발송</t>
   </si>
   <si>
@@ -104,25 +123,6 @@
     <t>핸드폰 번호 중복 시 fail</t>
   </si>
   <si>
-    <t>ID 중복 체크</t>
-  </si>
-  <si>
-    <t>/signup/id/check</t>
-  </si>
-  <si>
-    <t>id : String</t>
-  </si>
-  <si>
-    <t>핸드폰 인증번호 확인</t>
-  </si>
-  <si>
-    <t>/signup/phone/verify</t>
-  </si>
-  <si>
-    <t>number : String
-code : String</t>
-  </si>
-  <si>
     <t>친구</t>
   </si>
   <si>
@@ -135,10 +135,35 @@
     <t>requester_id : String</t>
   </si>
   <si>
+    <t>친구 요청 목록 조회</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/friend/request</t>
+  </si>
+  <si>
+    <t>requester_id : String
+date : String
+phone_number : String
+email : String
+name : String</t>
+  </si>
+  <si>
+    <t>친구 요청 수락</t>
+  </si>
+  <si>
+    <t>/friend/accept</t>
+  </si>
+  <si>
+    <t>친구 삭제</t>
+  </si>
+  <si>
+    <t>/friend/delete</t>
+  </si>
+  <si>
     <t>사용자 검색</t>
-  </si>
-  <si>
-    <t>GET</t>
   </si>
   <si>
     <t>/find_user</t>
@@ -154,31 +179,6 @@
 friend_recieved : boolean</t>
   </si>
   <si>
-    <t>친구 요청 목록 조회</t>
-  </si>
-  <si>
-    <t>/friend/request</t>
-  </si>
-  <si>
-    <t>requester_id : String
-date : String
-phone_number : String
-email : String
-name : String</t>
-  </si>
-  <si>
-    <t>친구 요청</t>
-  </si>
-  <si>
-    <t>dst : String</t>
-  </si>
-  <si>
-    <t>친구 요청 수락</t>
-  </si>
-  <si>
-    <t>/friend/accept</t>
-  </si>
-  <si>
     <t>친구 목록</t>
   </si>
   <si>
@@ -192,27 +192,27 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>친구 삭제</t>
-  </si>
-  <si>
-    <t>/friend/delete</t>
+    <t>친구 요청</t>
+  </si>
+  <si>
+    <t>dst : String</t>
   </si>
   <si>
     <t>위시리스트</t>
   </si>
   <si>
+    <t>위시리스트 조회</t>
+  </si>
+  <si>
+    <t>/wish</t>
+  </si>
+  <si>
+    <t>content_id : int</t>
+  </si>
+  <si>
     <t>위시리스트 추가</t>
   </si>
   <si>
-    <t>/wish</t>
-  </si>
-  <si>
-    <t>content_id : int</t>
-  </si>
-  <si>
-    <t>위시리스트 조회</t>
-  </si>
-  <si>
     <t>위시리스트에서 여행지 삭제</t>
   </si>
   <si>
@@ -220,38 +220,6 @@
   </si>
   <si>
     <t>여행지 정보</t>
-  </si>
-  <si>
-    <t>카테고리 지정된 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list</t>
-  </si>
-  <si>
-    <t>content_type_id : int
-sort_type : int
-page : int</t>
-  </si>
-  <si>
-    <t>content_id : int
-title : String
-wish : boolean
-wish_count : int
-address : String
-category : String
-image : String
-mapx : double
-mapy : double</t>
-  </si>
-  <si>
-    <t>카테고리 없는 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list/total</t>
-  </si>
-  <si>
-    <t>sort_type : int
-page : int</t>
   </si>
   <si>
     <t>여행지 세부 정보 조회</t>
@@ -272,28 +240,54 @@
 추가 정보는 여행지 세부 정보 기준표 참고 바람.</t>
   </si>
   <si>
+    <t>카테고리 없는 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list/total</t>
+  </si>
+  <si>
+    <t>sort_type : int
+page : int</t>
+  </si>
+  <si>
+    <t>content_id : int
+title : String
+wish : boolean
+wish_count : int
+address : String
+category : String
+image : String
+mapx : double
+mapy : double</t>
+  </si>
+  <si>
+    <t>카테고리 지정된 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list</t>
+  </si>
+  <si>
+    <t>content_type_id : int
+sort_type : int
+page : int</t>
+  </si>
+  <si>
     <t>여행 모드 내부</t>
   </si>
   <si>
-    <t>메시지 전송</t>
-  </si>
-  <si>
-    <t>/chat</t>
-  </si>
-  <si>
-    <t>topic : String
-type : String
-(text or image)
-content : String(type is text)</t>
+    <t>여행 나가기</t>
+  </si>
+  <si>
+    <t>/travel/quit</t>
+  </si>
+  <si>
+    <t>topic : String</t>
   </si>
   <si>
     <t>여행(채팅방) 정보 조회</t>
   </si>
   <si>
     <t>/travel/info</t>
-  </si>
-  <si>
-    <t>topic : String</t>
   </si>
   <si>
     <t>여행에 유저 초대</t>
@@ -307,26 +301,10 @@
 msg : String</t>
   </si>
   <si>
-    <t>지도에 여행지 추가</t>
+    <t>지도에 추가된 핀포인트 조회</t>
   </si>
   <si>
     <t>/map</t>
-  </si>
-  <si>
-    <t>topic : String
-content_id : int</t>
-  </si>
-  <si>
-    <t>이미 추가된 여행지일 경우 fail</t>
-  </si>
-  <si>
-    <t>여행 나가기</t>
-  </si>
-  <si>
-    <t>/travel/quit</t>
-  </si>
-  <si>
-    <t>지도에 추가된 핀포인트 조회</t>
   </si>
   <si>
     <t>content_id : int
@@ -336,6 +314,18 @@
 mapy : double</t>
   </si>
   <si>
+    <t>메시지 전송</t>
+  </si>
+  <si>
+    <t>/chat</t>
+  </si>
+  <si>
+    <t>topic : String
+type : String
+(text or image)
+content : String(type is text)</t>
+  </si>
+  <si>
     <t>읽지 않은 채팅 기록 조회</t>
   </si>
   <si>
@@ -353,25 +343,29 @@
 (JSONArray)</t>
   </si>
   <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+  </si>
+  <si>
+    <t>이미 추가된 여행지일 경우 fail</t>
+  </si>
+  <si>
     <t>여행 모드</t>
   </si>
   <si>
-    <t>활성화된 여행 리스트 조회</t>
+    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
   </si>
   <si>
     <t>/travel</t>
   </si>
   <si>
-    <t>topic : String
-title : String
-last_idx : int
-(JSONArray)</t>
-  </si>
-  <si>
-    <t>여행 초대 거절</t>
-  </si>
-  <si>
-    <t>/travel/refuse</t>
+    <t>title : String</t>
+  </si>
+  <si>
+    <t>여행 삭제</t>
   </si>
   <si>
     <t>초대받은 여행 리스트 조회</t>
@@ -392,13 +386,19 @@
     <t>/travel/accept</t>
   </si>
   <si>
-    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
-  </si>
-  <si>
-    <t>title : String</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
+    <t>여행 초대 거절</t>
+  </si>
+  <si>
+    <t>/travel/refuse</t>
+  </si>
+  <si>
+    <t>활성화된 여행 리스트 조회</t>
+  </si>
+  <si>
+    <t>topic : String
+title : String
+last_idx : int
+(JSONArray)</t>
   </si>
   <si>
     <t>아이디 찾기</t>
@@ -423,39 +423,10 @@
     <t>사용자</t>
   </si>
   <si>
-    <t>ID 기반 사용자 정보 조회</t>
+    <t>내 정보</t>
   </si>
   <si>
     <t>/user</t>
-  </si>
-  <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String</t>
-  </si>
-  <si>
-    <t>프로필 이미지 세팅</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>png 이미지 파일</t>
-  </si>
-  <si>
-    <t>마이페이지</t>
-  </si>
-  <si>
-    <t>/mypage</t>
-  </si>
-  <si>
-    <t>email : String
-phone_number : String
-name : String</t>
-  </si>
-  <si>
-    <t>내 정보</t>
   </si>
   <si>
     <t>id : String
@@ -466,10 +437,39 @@
 travel_req_count : int</t>
   </si>
   <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>/mypage</t>
+  </si>
+  <si>
+    <t>email : String
+phone_number : String
+name : String</t>
+  </si>
+  <si>
+    <t>ID 기반 사용자 정보 조회</t>
+  </si>
+  <si>
+    <t>id : String
+phone_number : String
+email : String
+name : String</t>
+  </si>
+  <si>
     <t>프로필 사진 조회</t>
   </si>
   <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
     <t>프로필 이미지 파일</t>
+  </si>
+  <si>
+    <t>프로필 이미지 세팅</t>
+  </si>
+  <si>
+    <t>png 이미지 파일</t>
   </si>
   <si>
     <t>비밀번호 찾기</t>
@@ -498,6 +498,12 @@
     <t>계정</t>
   </si>
   <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
     <t>비밀번호 변경</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
 new_password : String</t>
   </si>
   <si>
+    <t>계정 정보가 맞지 않을 경우 fail</t>
+  </si>
+  <si>
     <t>로그인</t>
   </si>
   <si>
@@ -522,12 +531,6 @@
   <si>
     <t>Set-Cookie
 (key=UserSession)</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>/logout</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
         <v>204.0</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -659,22 +662,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3" t="n">
         <v>201.0</v>
@@ -697,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -724,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -735,22 +738,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
       </c>
       <c r="H5" t="n">
         <v>201.0</v>
@@ -765,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -773,22 +776,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
       <c r="H6" t="n">
         <v>201.0</v>
@@ -803,7 +806,7 @@
         <v>204.0</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -811,37 +814,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -899,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -911,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" t="n">
         <v>204.0</v>
@@ -925,14 +928,14 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
@@ -940,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -963,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -978,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
         <v>201.0</v>
@@ -1001,34 +1004,34 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1083,16 +1086,16 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
       </c>
       <c r="H14" t="n">
         <v>201.0</v>
@@ -1118,7 +1121,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1127,13 +1130,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -1142,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1156,7 +1159,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -1165,13 +1168,13 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
       <c r="H16" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -1180,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="K16" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1241,22 +1244,22 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
       <c r="K18" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1267,19 +1270,19 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -1291,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
         <v>204.0</v>
@@ -1317,22 +1320,22 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1346,7 +1349,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1361,7 +1364,7 @@
         <v>76</v>
       </c>
       <c r="H21" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1396,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H22" t="n">
         <v>200.0</v>
@@ -1419,22 +1422,22 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>82</v>
       </c>
       <c r="H23" t="n">
         <v>201.0</v>
@@ -1457,37 +1460,37 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
       </c>
       <c r="K24" t="n">
         <v>204.0</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1495,25 +1498,25 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
       <c r="H25" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -1533,14 +1536,14 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
@@ -1548,16 +1551,16 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="n">
         <v>204.0</v>
@@ -1571,13 +1574,13 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1595,13 +1598,13 @@
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
         <v>204.0</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1612,7 +1615,7 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1624,19 +1627,19 @@
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="H28" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="K28" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1650,22 +1653,22 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -1685,13 +1688,13 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1709,7 +1712,7 @@
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30" t="n">
         <v>204.0</v>
@@ -1723,14 +1726,14 @@
         <v>95</v>
       </c>
       <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H31" t="n">
         <v>201.0</v>
@@ -1761,14 +1764,14 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H32" t="n">
         <v>201.0</v>
@@ -1785,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -1799,10 +1802,10 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -1811,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -1823,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1837,7 +1840,7 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1890,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
         <v>201.0</v>
@@ -1916,7 +1919,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
@@ -1928,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -1954,7 +1957,7 @@
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
         <v>119</v>
@@ -1966,19 +1969,19 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
         <v>120</v>
       </c>
-      <c r="H37" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
-      </c>
       <c r="K37" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -1992,31 +1995,31 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
         <v>122</v>
       </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" t="s">
-        <v>123</v>
-      </c>
       <c r="K38" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2027,13 +2030,13 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2054,7 +2057,7 @@
         <v>125</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2068,10 +2071,10 @@
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2080,19 +2083,19 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="H40" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="K40" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -2118,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
         <v>201.0</v>
@@ -2141,7 +2144,7 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2232,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="H44" t="n">
         <v>201.0</v>
@@ -2255,28 +2258,28 @@
         <v>135</v>
       </c>
       <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
         <v>140</v>
       </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>141</v>
-      </c>
       <c r="H45" t="n">
         <v>201.0</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -2285,7 +2288,7 @@
         <v>204.0</v>
       </c>
       <c r="L45" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46">
@@ -2293,28 +2296,28 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
         <v>144</v>
       </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
       <c r="H46" t="n">
         <v>201.0</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>

--- a/Daejeon_People_Server/API Document.xlsx
+++ b/Daejeon_People_Server/API Document.xlsx
@@ -53,30 +53,32 @@
     <t>회원가입</t>
   </si>
   <si>
-    <t>핸드폰 인증번호 확인</t>
+    <t>이메일 인증번호 확인</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/signup/phone/verify</t>
+    <t>/signup/email/verify</t>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>number : String
-code : String</t>
-  </si>
-  <si>
-    <t>이메일 인증번호 확인</t>
-  </si>
-  <si>
-    <t>/signup/email/verify</t>
   </si>
   <si>
     <t>email : String
 code : String</t>
+  </si>
+  <si>
+    <t>이메일 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/email/demand</t>
+  </si>
+  <si>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>이메일 중복 시 fail</t>
   </si>
   <si>
     <t>ID 중복 체크</t>
@@ -99,18 +101,6 @@
 registration_id : String</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/email/demand</t>
-  </si>
-  <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>이메일 중복 시 fail</t>
-  </si>
-  <si>
     <t>핸드폰 인증번호 발송</t>
   </si>
   <si>
@@ -123,25 +113,32 @@
     <t>핸드폰 번호 중복 시 fail</t>
   </si>
   <si>
+    <t>핸드폰 인증번호 확인</t>
+  </si>
+  <si>
+    <t>/signup/phone/verify</t>
+  </si>
+  <si>
+    <t>number : String
+code : String</t>
+  </si>
+  <si>
     <t>친구</t>
   </si>
   <si>
-    <t>친구 요청 거절</t>
-  </si>
-  <si>
-    <t>/friend/refuse</t>
-  </si>
-  <si>
-    <t>requester_id : String</t>
+    <t>친구 요청</t>
+  </si>
+  <si>
+    <t>/friend/request</t>
+  </si>
+  <si>
+    <t>dst : String</t>
   </si>
   <si>
     <t>친구 요청 목록 조회</t>
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>/friend/request</t>
   </si>
   <si>
     <t>requester_id : String
@@ -151,16 +148,38 @@
 name : String</t>
   </si>
   <si>
+    <t>친구 삭제</t>
+  </si>
+  <si>
+    <t>/friend/delete</t>
+  </si>
+  <si>
+    <t>친구 목록</t>
+  </si>
+  <si>
+    <t>/friend</t>
+  </si>
+  <si>
+    <t>id : String
+phone_number : String
+email : String
+name : String
+(JSONArray)</t>
+  </si>
+  <si>
+    <t>친구 요청 거절</t>
+  </si>
+  <si>
+    <t>/friend/refuse</t>
+  </si>
+  <si>
+    <t>requester_id : String</t>
+  </si>
+  <si>
     <t>친구 요청 수락</t>
   </si>
   <si>
     <t>/friend/accept</t>
-  </si>
-  <si>
-    <t>친구 삭제</t>
-  </si>
-  <si>
-    <t>/friend/delete</t>
   </si>
   <si>
     <t>사용자 검색</t>
@@ -179,25 +198,6 @@
 friend_recieved : boolean</t>
   </si>
   <si>
-    <t>친구 목록</t>
-  </si>
-  <si>
-    <t>/friend</t>
-  </si>
-  <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String
-(JSONArray)</t>
-  </si>
-  <si>
-    <t>친구 요청</t>
-  </si>
-  <si>
-    <t>dst : String</t>
-  </si>
-  <si>
     <t>위시리스트</t>
   </si>
   <si>
@@ -220,6 +220,38 @@
   </si>
   <si>
     <t>여행지 정보</t>
+  </si>
+  <si>
+    <t>카테고리 지정된 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list</t>
+  </si>
+  <si>
+    <t>content_type_id : int
+sort_type : int
+page : int</t>
+  </si>
+  <si>
+    <t>content_id : int
+title : String
+wish : boolean
+wish_count : int
+address : String
+category : String
+image : String
+mapx : double
+mapy : double</t>
+  </si>
+  <si>
+    <t>카테고리 없는 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list/total</t>
+  </si>
+  <si>
+    <t>sort_type : int
+page : int</t>
   </si>
   <si>
     <t>여행지 세부 정보 조회</t>
@@ -240,54 +272,7 @@
 추가 정보는 여행지 세부 정보 기준표 참고 바람.</t>
   </si>
   <si>
-    <t>카테고리 없는 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list/total</t>
-  </si>
-  <si>
-    <t>sort_type : int
-page : int</t>
-  </si>
-  <si>
-    <t>content_id : int
-title : String
-wish : boolean
-wish_count : int
-address : String
-category : String
-image : String
-mapx : double
-mapy : double</t>
-  </si>
-  <si>
-    <t>카테고리 지정된 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list</t>
-  </si>
-  <si>
-    <t>content_type_id : int
-sort_type : int
-page : int</t>
-  </si>
-  <si>
     <t>여행 모드 내부</t>
-  </si>
-  <si>
-    <t>여행 나가기</t>
-  </si>
-  <si>
-    <t>/travel/quit</t>
-  </si>
-  <si>
-    <t>topic : String</t>
-  </si>
-  <si>
-    <t>여행(채팅방) 정보 조회</t>
-  </si>
-  <si>
-    <t>/travel/info</t>
   </si>
   <si>
     <t>여행에 유저 초대</t>
@@ -301,10 +286,23 @@
 msg : String</t>
   </si>
   <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>/map</t>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+  </si>
+  <si>
+    <t>이미 추가된 여행지일 경우 fail</t>
+  </si>
+  <si>
     <t>지도에 추가된 핀포인트 조회</t>
   </si>
   <si>
-    <t>/map</t>
+    <t>topic : String</t>
   </si>
   <si>
     <t>content_id : int
@@ -343,29 +341,43 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>지도에 여행지 추가</t>
+    <t>여행 나가기</t>
+  </si>
+  <si>
+    <t>/travel/quit</t>
+  </si>
+  <si>
+    <t>여행(채팅방) 정보 조회</t>
+  </si>
+  <si>
+    <t>/travel/info</t>
+  </si>
+  <si>
+    <t>여행 모드</t>
+  </si>
+  <si>
+    <t>활성화된 여행 리스트 조회</t>
+  </si>
+  <si>
+    <t>/travel</t>
   </si>
   <si>
     <t>topic : String
-content_id : int</t>
-  </si>
-  <si>
-    <t>이미 추가된 여행지일 경우 fail</t>
-  </si>
-  <si>
-    <t>여행 모드</t>
+title : String
+last_idx : int
+(JSONArray)</t>
+  </si>
+  <si>
+    <t>여행 초대 수락</t>
+  </si>
+  <si>
+    <t>/travel/accept</t>
   </si>
   <si>
     <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
   </si>
   <si>
-    <t>/travel</t>
-  </si>
-  <si>
     <t>title : String</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
   </si>
   <si>
     <t>초대받은 여행 리스트 조회</t>
@@ -380,28 +392,22 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>여행 초대 수락</t>
-  </si>
-  <si>
-    <t>/travel/accept</t>
-  </si>
-  <si>
     <t>여행 초대 거절</t>
   </si>
   <si>
     <t>/travel/refuse</t>
   </si>
   <si>
-    <t>활성화된 여행 리스트 조회</t>
-  </si>
-  <si>
-    <t>topic : String
-title : String
-last_idx : int
-(JSONArray)</t>
+    <t>여행 삭제</t>
   </si>
   <si>
     <t>아이디 찾기</t>
+  </si>
+  <si>
+    <t>인증번호 확인 후 이메일로 아이디 전송</t>
+  </si>
+  <si>
+    <t>/find/id/verify</t>
   </si>
   <si>
     <t>/find/id/demand</t>
@@ -414,13 +420,22 @@
     <t>입력한 데이터의 계정이 존재하지 않을 경우 fail</t>
   </si>
   <si>
-    <t>인증번호 확인 후 이메일로 아이디 전송</t>
-  </si>
-  <si>
-    <t>/find/id/verify</t>
-  </si>
-  <si>
     <t>사용자</t>
+  </si>
+  <si>
+    <t>프로필 사진 조회</t>
+  </si>
+  <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
+    <t>프로필 이미지 파일</t>
+  </si>
+  <si>
+    <t>프로필 이미지 세팅</t>
+  </si>
+  <si>
+    <t>png 이미지 파일</t>
   </si>
   <si>
     <t>내 정보</t>
@@ -457,28 +472,7 @@
 name : String</t>
   </si>
   <si>
-    <t>프로필 사진 조회</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>프로필 이미지 파일</t>
-  </si>
-  <si>
-    <t>프로필 이미지 세팅</t>
-  </si>
-  <si>
-    <t>png 이미지 파일</t>
-  </si>
-  <si>
     <t>비밀번호 찾기</t>
-  </si>
-  <si>
-    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
-  </si>
-  <si>
-    <t>/find/password/verify</t>
   </si>
   <si>
     <t>/find/password/demand</t>
@@ -489,6 +483,12 @@
 name : String</t>
   </si>
   <si>
+    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
+  </si>
+  <si>
+    <t>/find/password/verify</t>
+  </si>
+  <si>
     <t>미정</t>
   </si>
   <si>
@@ -502,6 +502,21 @@
   </si>
   <si>
     <t>/logout</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/signin</t>
+  </si>
+  <si>
+    <t>id : String
+password : String
+keep_login : boolean</t>
+  </si>
+  <si>
+    <t>Set-Cookie
+(key=UserSession)</t>
   </si>
   <si>
     <t>비밀번호 변경</t>
@@ -516,21 +531,6 @@
   </si>
   <si>
     <t>계정 정보가 맞지 않을 경우 fail</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/signin</t>
-  </si>
-  <si>
-    <t>id : String
-password : String
-keep_login : boolean</t>
-  </si>
-  <si>
-    <t>Set-Cookie
-(key=UserSession)</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
         <v>204.0</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -715,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
         <v>201.0</v>
@@ -744,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
         <v>201.0</v>
@@ -776,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -791,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
         <v>201.0</v>
@@ -803,10 +803,10 @@
         <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -814,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>201.0</v>
@@ -841,10 +841,10 @@
         <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -914,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
         <v>204.0</v>
@@ -928,14 +928,14 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
@@ -943,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
         <v>201.0</v>
@@ -966,34 +966,34 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1007,7 +1007,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1016,22 +1016,22 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
       <c r="H12" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1042,14 +1042,14 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
@@ -1057,19 +1057,19 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H13" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K13" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1080,34 +1080,34 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1244,22 +1244,22 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1270,19 +1270,19 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K19" t="n">
         <v>204.0</v>
@@ -1320,22 +1320,22 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
       <c r="K20" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1349,7 +1349,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1364,7 +1364,7 @@
         <v>76</v>
       </c>
       <c r="H21" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1387,7 +1387,7 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>78</v>
@@ -1399,22 +1399,22 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H22" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -1422,13 +1422,13 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1437,19 +1437,19 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I23" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1460,13 +1460,13 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1475,19 +1475,19 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1498,13 +1498,13 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1513,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" t="n">
         <v>201.0</v>
@@ -1522,10 +1522,10 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1536,13 +1536,13 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1551,19 +1551,19 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H26" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1574,13 +1574,13 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1589,22 +1589,22 @@
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H27" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="K27" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1615,7 +1615,7 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1627,19 +1627,19 @@
         <v>16</v>
       </c>
       <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
         <v>98</v>
       </c>
-      <c r="H28" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>76</v>
-      </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1653,22 +1653,22 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H29" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -1688,13 +1688,13 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1703,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="H30" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1726,13 +1726,13 @@
         <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1741,19 +1741,19 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H31" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1764,13 +1764,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H32" t="n">
         <v>201.0</v>
@@ -1802,10 +1802,10 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -1814,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -1826,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="K33" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1840,13 +1840,13 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -1855,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="H34" t="n">
         <v>201.0</v>
@@ -1870,7 +1870,7 @@
         <v>204.0</v>
       </c>
       <c r="L34" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1878,22 +1878,22 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
       </c>
       <c r="H35" t="n">
         <v>201.0</v>
@@ -1908,7 +1908,7 @@
         <v>204.0</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1943,7 +1943,7 @@
         <v>117</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -1957,31 +1957,31 @@
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
         <v>119</v>
       </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
       <c r="H37" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="K37" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -1992,14 +1992,14 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
         <v>121</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" t="s">
         <v>16</v>
       </c>
@@ -2007,10 +2007,10 @@
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H38" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -2074,7 +2074,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2083,16 +2083,16 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
         <v>127</v>
-      </c>
-      <c r="H40" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>16</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -2106,22 +2106,22 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
         <v>129</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
         <v>130</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
       </c>
       <c r="H41" t="n">
         <v>201.0</v>
@@ -2136,7 +2136,7 @@
         <v>204.0</v>
       </c>
       <c r="L41" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -2144,13 +2144,13 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -2159,7 +2159,7 @@
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
         <v>201.0</v>
@@ -2174,7 +2174,7 @@
         <v>204.0</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -2279,7 +2279,7 @@
         <v>201.0</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -2288,7 +2288,7 @@
         <v>204.0</v>
       </c>
       <c r="L45" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -2317,7 +2317,7 @@
         <v>201.0</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -2326,7 +2326,7 @@
         <v>204.0</v>
       </c>
       <c r="L46" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Daejeon_People_Server/API Document.xlsx
+++ b/Daejeon_People_Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="144">
   <si>
     <t>Function Category</t>
   </si>
@@ -53,32 +53,42 @@
     <t>회원가입</t>
   </si>
   <si>
+    <t>핸드폰 인증번호 확인</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/signup/phone/verify</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>number : String
+code : String</t>
+  </si>
+  <si>
     <t>이메일 인증번호 확인</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>/signup/email/verify</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>email : String
 code : String</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/email/demand</t>
-  </si>
-  <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>이메일 중복 시 fail</t>
+    <t>핸드폰 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/phone/demand</t>
+  </si>
+  <si>
+    <t>number : String</t>
+  </si>
+  <si>
+    <t>핸드폰 번호 중복 시 fail</t>
   </si>
   <si>
     <t>ID 중복 체크</t>
@@ -101,29 +111,28 @@
 registration_id : String</t>
   </si>
   <si>
-    <t>핸드폰 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/phone/demand</t>
-  </si>
-  <si>
-    <t>number : String</t>
-  </si>
-  <si>
-    <t>핸드폰 번호 중복 시 fail</t>
-  </si>
-  <si>
-    <t>핸드폰 인증번호 확인</t>
-  </si>
-  <si>
-    <t>/signup/phone/verify</t>
-  </si>
-  <si>
-    <t>number : String
-code : String</t>
+    <t>이메일 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/email/demand</t>
+  </si>
+  <si>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>이메일 중복 시 fail</t>
   </si>
   <si>
     <t>친구</t>
+  </si>
+  <si>
+    <t>친구 요청 수락</t>
+  </si>
+  <si>
+    <t>/friend/accept</t>
+  </si>
+  <si>
+    <t>requester_id : String</t>
   </si>
   <si>
     <t>친구 요청</t>
@@ -154,6 +163,28 @@
     <t>/friend/delete</t>
   </si>
   <si>
+    <t>친구 요청 거절</t>
+  </si>
+  <si>
+    <t>/friend/refuse</t>
+  </si>
+  <si>
+    <t>사용자 검색</t>
+  </si>
+  <si>
+    <t>/find_user</t>
+  </si>
+  <si>
+    <t>keyword : String</t>
+  </si>
+  <si>
+    <t>email : String
+name : String
+id : String
+friend_requested : boolean
+friend_recieved : boolean</t>
+  </si>
+  <si>
     <t>친구 목록</t>
   </si>
   <si>
@@ -167,52 +198,21 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>친구 요청 거절</t>
-  </si>
-  <si>
-    <t>/friend/refuse</t>
-  </si>
-  <si>
-    <t>requester_id : String</t>
-  </si>
-  <si>
-    <t>친구 요청 수락</t>
-  </si>
-  <si>
-    <t>/friend/accept</t>
-  </si>
-  <si>
-    <t>사용자 검색</t>
-  </si>
-  <si>
-    <t>/find_user</t>
-  </si>
-  <si>
-    <t>keyword : String</t>
-  </si>
-  <si>
-    <t>email : String
-name : String
-id : String
-friend_requested : boolean
-friend_recieved : boolean</t>
-  </si>
-  <si>
     <t>위시리스트</t>
   </si>
   <si>
+    <t>위시리스트 추가</t>
+  </si>
+  <si>
+    <t>/wish</t>
+  </si>
+  <si>
+    <t>content_id : int</t>
+  </si>
+  <si>
     <t>위시리스트 조회</t>
   </si>
   <si>
-    <t>/wish</t>
-  </si>
-  <si>
-    <t>content_id : int</t>
-  </si>
-  <si>
-    <t>위시리스트 추가</t>
-  </si>
-  <si>
     <t>위시리스트에서 여행지 삭제</t>
   </si>
   <si>
@@ -222,14 +222,13 @@
     <t>여행지 정보</t>
   </si>
   <si>
-    <t>카테고리 지정된 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list</t>
-  </si>
-  <si>
-    <t>content_type_id : int
-sort_type : int
+    <t>카테고리 없는 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list/total</t>
+  </si>
+  <si>
+    <t>sort_type : int
 page : int</t>
   </si>
   <si>
@@ -244,13 +243,14 @@
 mapy : double</t>
   </si>
   <si>
-    <t>카테고리 없는 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list/total</t>
-  </si>
-  <si>
-    <t>sort_type : int
+    <t>카테고리 지정된 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list</t>
+  </si>
+  <si>
+    <t>content_type_id : int
+sort_type : int
 page : int</t>
   </si>
   <si>
@@ -275,6 +275,19 @@
     <t>여행 모드 내부</t>
   </si>
   <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>/map</t>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+  </si>
+  <si>
+    <t>이미 추가된 여행지일 경우 fail</t>
+  </si>
+  <si>
     <t>여행에 유저 초대</t>
   </si>
   <si>
@@ -286,23 +299,16 @@
 msg : String</t>
   </si>
   <si>
-    <t>지도에 여행지 추가</t>
-  </si>
-  <si>
-    <t>/map</t>
-  </si>
-  <si>
-    <t>topic : String
-content_id : int</t>
-  </si>
-  <si>
-    <t>이미 추가된 여행지일 경우 fail</t>
+    <t>여행(채팅방) 정보 조회</t>
+  </si>
+  <si>
+    <t>/travel/info</t>
+  </si>
+  <si>
+    <t>topic : String</t>
   </si>
   <si>
     <t>지도에 추가된 핀포인트 조회</t>
-  </si>
-  <si>
-    <t>topic : String</t>
   </si>
   <si>
     <t>content_id : int
@@ -312,18 +318,6 @@
 mapy : double</t>
   </si>
   <si>
-    <t>메시지 전송</t>
-  </si>
-  <si>
-    <t>/chat</t>
-  </si>
-  <si>
-    <t>topic : String
-type : String
-(text or image)
-content : String(type is text)</t>
-  </si>
-  <si>
     <t>읽지 않은 채팅 기록 조회</t>
   </si>
   <si>
@@ -347,37 +341,52 @@
     <t>/travel/quit</t>
   </si>
   <si>
-    <t>여행(채팅방) 정보 조회</t>
-  </si>
-  <si>
-    <t>/travel/info</t>
+    <t>메시지 전송</t>
+  </si>
+  <si>
+    <t>/chat</t>
+  </si>
+  <si>
+    <t>topic : String
+type : String
+(text or image)
+content : String(type is text)</t>
   </si>
   <si>
     <t>여행 모드</t>
   </si>
   <si>
+    <t>여행 초대 수락</t>
+  </si>
+  <si>
+    <t>/travel/accept</t>
+  </si>
+  <si>
+    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
+  </si>
+  <si>
+    <t>/travel</t>
+  </si>
+  <si>
+    <t>title : String</t>
+  </si>
+  <si>
+    <t>여행 삭제</t>
+  </si>
+  <si>
+    <t>여행 초대 거절</t>
+  </si>
+  <si>
+    <t>/travel/refuse</t>
+  </si>
+  <si>
     <t>활성화된 여행 리스트 조회</t>
-  </si>
-  <si>
-    <t>/travel</t>
   </si>
   <si>
     <t>topic : String
 title : String
 last_idx : int
 (JSONArray)</t>
-  </si>
-  <si>
-    <t>여행 초대 수락</t>
-  </si>
-  <si>
-    <t>/travel/accept</t>
-  </si>
-  <si>
-    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
-  </si>
-  <si>
-    <t>title : String</t>
   </si>
   <si>
     <t>초대받은 여행 리스트 조회</t>
@@ -392,22 +401,7 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>여행 초대 거절</t>
-  </si>
-  <si>
-    <t>/travel/refuse</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
-  </si>
-  <si>
     <t>아이디 찾기</t>
-  </si>
-  <si>
-    <t>인증번호 확인 후 이메일로 아이디 전송</t>
-  </si>
-  <si>
-    <t>/find/id/verify</t>
   </si>
   <si>
     <t>/find/id/demand</t>
@@ -420,22 +414,13 @@
     <t>입력한 데이터의 계정이 존재하지 않을 경우 fail</t>
   </si>
   <si>
+    <t>인증번호 확인 후 이메일로 아이디 전송</t>
+  </si>
+  <si>
+    <t>/find/id/verify</t>
+  </si>
+  <si>
     <t>사용자</t>
-  </si>
-  <si>
-    <t>프로필 사진 조회</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>프로필 이미지 파일</t>
-  </si>
-  <si>
-    <t>프로필 이미지 세팅</t>
-  </si>
-  <si>
-    <t>png 이미지 파일</t>
   </si>
   <si>
     <t>내 정보</t>
@@ -452,17 +437,6 @@
 travel_req_count : int</t>
   </si>
   <si>
-    <t>마이페이지</t>
-  </si>
-  <si>
-    <t>/mypage</t>
-  </si>
-  <si>
-    <t>email : String
-phone_number : String
-name : String</t>
-  </si>
-  <si>
     <t>ID 기반 사용자 정보 조회</t>
   </si>
   <si>
@@ -472,7 +446,39 @@
 name : String</t>
   </si>
   <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>/mypage</t>
+  </si>
+  <si>
+    <t>email : String
+phone_number : String
+name : String</t>
+  </si>
+  <si>
+    <t>프로필 사진 조회</t>
+  </si>
+  <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
+    <t>프로필 이미지 파일</t>
+  </si>
+  <si>
+    <t>프로필 이미지 세팅</t>
+  </si>
+  <si>
+    <t>png 이미지 파일</t>
+  </si>
+  <si>
     <t>비밀번호 찾기</t>
+  </si>
+  <si>
+    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
+  </si>
+  <si>
+    <t>/find/password/verify</t>
   </si>
   <si>
     <t>/find/password/demand</t>
@@ -483,18 +489,6 @@
 name : String</t>
   </si>
   <si>
-    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
-  </si>
-  <si>
-    <t>/find/password/verify</t>
-  </si>
-  <si>
-    <t>미정</t>
-  </si>
-  <si>
-    <t>/test</t>
-  </si>
-  <si>
     <t>계정</t>
   </si>
   <si>
@@ -502,6 +496,20 @@
   </si>
   <si>
     <t>/logout</t>
+  </si>
+  <si>
+    <t>비밀번호 변경</t>
+  </si>
+  <si>
+    <t>/change/password</t>
+  </si>
+  <si>
+    <t>id : String
+current_password : String
+new_password : String</t>
+  </si>
+  <si>
+    <t>계정 정보가 맞지 않을 경우 fail</t>
   </si>
   <si>
     <t>로그인</t>
@@ -517,20 +525,6 @@
   <si>
     <t>Set-Cookie
 (key=UserSession)</t>
-  </si>
-  <si>
-    <t>비밀번호 변경</t>
-  </si>
-  <si>
-    <t>/change/password</t>
-  </si>
-  <si>
-    <t>id : String
-current_password : String
-new_password : String</t>
-  </si>
-  <si>
-    <t>계정 정보가 맞지 않을 경우 fail</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -692,7 +686,7 @@
         <v>204.0</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -700,37 +694,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -738,13 +732,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -753,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
         <v>201.0</v>
@@ -765,7 +759,7 @@
         <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -776,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -806,7 +800,7 @@
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -814,37 +808,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -893,11 +887,11 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
@@ -905,19 +899,19 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -931,10 +925,10 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -943,19 +937,19 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -966,13 +960,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -981,19 +975,19 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1019,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
         <v>201.0</v>
@@ -1042,34 +1036,34 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1080,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -1121,7 +1115,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1130,13 +1124,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -1145,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1159,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -1168,13 +1162,13 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -1183,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1235,7 +1229,7 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
@@ -1273,7 +1267,7 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
@@ -1311,7 +1305,7 @@
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
@@ -1373,10 +1367,10 @@
         <v>16</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1378,13 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1399,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="n">
         <v>201.0</v>
@@ -1411,10 +1405,10 @@
         <v>16</v>
       </c>
       <c r="K22" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1425,10 +1419,10 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1437,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="n">
         <v>200.0</v>
@@ -1446,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1463,31 +1457,31 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1498,31 +1492,31 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
         <v>89</v>
-      </c>
-      <c r="H25" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>90</v>
       </c>
       <c r="K25" t="n">
         <v>204.0</v>
@@ -1536,13 +1530,13 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1551,7 +1545,7 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="n">
         <v>200.0</v>
@@ -1574,31 +1568,31 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
         <v>94</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
       <c r="H27" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
@@ -1615,7 +1609,7 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1627,19 +1621,19 @@
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="H28" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1650,23 +1644,23 @@
         <v>95</v>
       </c>
       <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
       <c r="H29" t="n">
         <v>201.0</v>
       </c>
@@ -1674,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -1691,28 +1685,28 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -1726,14 +1720,14 @@
         <v>95</v>
       </c>
       <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
@@ -1741,19 +1735,19 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="H31" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="K31" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1764,34 +1758,34 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1802,19 +1796,19 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -1826,10 +1820,10 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1840,23 +1834,23 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
         <v>110</v>
       </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
       <c r="H34" t="n">
         <v>201.0</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>204.0</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -1878,13 +1872,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -1893,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
         <v>201.0</v>
@@ -1908,7 +1902,7 @@
         <v>204.0</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1919,7 +1913,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
@@ -1943,7 +1937,7 @@
         <v>117</v>
       </c>
       <c r="K36" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -1969,16 +1963,16 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
         <v>119</v>
-      </c>
-      <c r="H37" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -1995,7 +1989,7 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -2019,7 +2013,7 @@
         <v>122</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2033,7 +2027,7 @@
         <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
@@ -2074,7 +2068,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2083,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="H40" t="n">
         <v>201.0</v>
@@ -2092,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -2106,13 +2100,13 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -2121,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
         <v>201.0</v>
@@ -2136,7 +2130,7 @@
         <v>204.0</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -2144,23 +2138,23 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>131</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
         <v>132</v>
       </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
       <c r="H42" t="n">
         <v>201.0</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>204.0</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -2182,42 +2176,42 @@
         <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>201.0</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L43" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -2235,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="H44" t="n">
         <v>201.0</v>
@@ -2250,21 +2244,21 @@
         <v>204.0</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -2273,13 +2267,13 @@
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H45" t="n">
         <v>201.0</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -2289,44 +2283,6 @@
       </c>
       <c r="L45" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Daejeon_People_Server/API Document.xlsx
+++ b/Daejeon_People_Server/API Document.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="146">
   <si>
     <t>Function Category</t>
   </si>
@@ -53,20 +53,22 @@
     <t>회원가입</t>
   </si>
   <si>
-    <t>핸드폰 인증번호 확인</t>
+    <t>이메일 인증번호 발송</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/signup/phone/verify</t>
+    <t>/signup/email/demand</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>number : String
-code : String</t>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>이메일 중복 시 fail</t>
   </si>
   <si>
     <t>이메일 인증번호 확인</t>
@@ -77,27 +79,6 @@
   <si>
     <t>email : String
 code : String</t>
-  </si>
-  <si>
-    <t>핸드폰 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/phone/demand</t>
-  </si>
-  <si>
-    <t>number : String</t>
-  </si>
-  <si>
-    <t>핸드폰 번호 중복 시 fail</t>
-  </si>
-  <si>
-    <t>ID 중복 체크</t>
-  </si>
-  <si>
-    <t>/signup/id/check</t>
-  </si>
-  <si>
-    <t>id : String</t>
   </si>
   <si>
     <t>/signup</t>
@@ -111,21 +92,49 @@
 registration_id : String</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/email/demand</t>
-  </si>
-  <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>이메일 중복 시 fail</t>
+    <t>핸드폰 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/phone/demand</t>
+  </si>
+  <si>
+    <t>number : String</t>
+  </si>
+  <si>
+    <t>핸드폰 번호 중복 시 fail</t>
+  </si>
+  <si>
+    <t>ID 중복 체크</t>
+  </si>
+  <si>
+    <t>/signup/id/check</t>
+  </si>
+  <si>
+    <t>id : String</t>
+  </si>
+  <si>
+    <t>핸드폰 인증번호 확인</t>
+  </si>
+  <si>
+    <t>/signup/phone/verify</t>
+  </si>
+  <si>
+    <t>number : String
+code : String</t>
   </si>
   <si>
     <t>친구</t>
   </si>
   <si>
+    <t>친구 요청</t>
+  </si>
+  <si>
+    <t>/friend/request</t>
+  </si>
+  <si>
+    <t>dst : String</t>
+  </si>
+  <si>
     <t>친구 요청 수락</t>
   </si>
   <si>
@@ -135,19 +144,35 @@
     <t>requester_id : String</t>
   </si>
   <si>
-    <t>친구 요청</t>
-  </si>
-  <si>
-    <t>/friend/request</t>
-  </si>
-  <si>
-    <t>dst : String</t>
+    <t>친구 목록</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/friend</t>
+  </si>
+  <si>
+    <t>id : String
+phone_number : String
+email : String
+name : String
+(JSONArray)</t>
+  </si>
+  <si>
+    <t>친구 요청 거절</t>
+  </si>
+  <si>
+    <t>/friend/refuse</t>
+  </si>
+  <si>
+    <t>친구 삭제</t>
+  </si>
+  <si>
+    <t>/friend/delete</t>
   </si>
   <si>
     <t>친구 요청 목록 조회</t>
-  </si>
-  <si>
-    <t>GET</t>
   </si>
   <si>
     <t>requester_id : String
@@ -157,18 +182,6 @@
 name : String</t>
   </si>
   <si>
-    <t>친구 삭제</t>
-  </si>
-  <si>
-    <t>/friend/delete</t>
-  </si>
-  <si>
-    <t>친구 요청 거절</t>
-  </si>
-  <si>
-    <t>/friend/refuse</t>
-  </si>
-  <si>
     <t>사용자 검색</t>
   </si>
   <si>
@@ -185,73 +198,28 @@
 friend_recieved : boolean</t>
   </si>
   <si>
-    <t>친구 목록</t>
-  </si>
-  <si>
-    <t>/friend</t>
-  </si>
-  <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String
-(JSONArray)</t>
-  </si>
-  <si>
     <t>위시리스트</t>
   </si>
   <si>
+    <t>위시리스트 조회</t>
+  </si>
+  <si>
+    <t>/wish</t>
+  </si>
+  <si>
+    <t>content_id : int</t>
+  </si>
+  <si>
+    <t>위시리스트에서 여행지 삭제</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
     <t>위시리스트 추가</t>
   </si>
   <si>
-    <t>/wish</t>
-  </si>
-  <si>
-    <t>content_id : int</t>
-  </si>
-  <si>
-    <t>위시리스트 조회</t>
-  </si>
-  <si>
-    <t>위시리스트에서 여행지 삭제</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
     <t>여행지 정보</t>
-  </si>
-  <si>
-    <t>카테고리 없는 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list/total</t>
-  </si>
-  <si>
-    <t>sort_type : int
-page : int</t>
-  </si>
-  <si>
-    <t>content_id : int
-title : String
-wish : boolean
-wish_count : int
-address : String
-category : String
-image : String
-mapx : double
-mapy : double</t>
-  </si>
-  <si>
-    <t>카테고리 지정된 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list</t>
-  </si>
-  <si>
-    <t>content_type_id : int
-sort_type : int
-page : int</t>
   </si>
   <si>
     <t>여행지 세부 정보 조회</t>
@@ -272,43 +240,48 @@
 추가 정보는 여행지 세부 정보 기준표 참고 바람.</t>
   </si>
   <si>
+    <t>카테고리 지정된 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list</t>
+  </si>
+  <si>
+    <t>content_type_id : int
+sort_type : int
+page : int</t>
+  </si>
+  <si>
+    <t>content_id : int
+title : String
+wish : boolean
+wish_count : int
+address : String
+category : String
+image : String
+mapx : double
+mapy : double</t>
+  </si>
+  <si>
+    <t>카테고리 없는 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list/total</t>
+  </si>
+  <si>
+    <t>sort_type : int
+page : int</t>
+  </si>
+  <si>
     <t>여행 모드 내부</t>
   </si>
   <si>
-    <t>지도에 여행지 추가</t>
+    <t>지도에 추가된 핀포인트 조회</t>
   </si>
   <si>
     <t>/map</t>
   </si>
   <si>
-    <t>topic : String
-content_id : int</t>
-  </si>
-  <si>
-    <t>이미 추가된 여행지일 경우 fail</t>
-  </si>
-  <si>
-    <t>여행에 유저 초대</t>
-  </si>
-  <si>
-    <t>/travel/invite</t>
-  </si>
-  <si>
-    <t>dst : String
-topic : String
-msg : String</t>
-  </si>
-  <si>
-    <t>여행(채팅방) 정보 조회</t>
-  </si>
-  <si>
-    <t>/travel/info</t>
-  </si>
-  <si>
     <t>topic : String</t>
-  </si>
-  <si>
-    <t>지도에 추가된 핀포인트 조회</t>
   </si>
   <si>
     <t>content_id : int
@@ -318,6 +291,51 @@
 mapy : double</t>
   </si>
   <si>
+    <t>여행(채팅방) 정보 조회</t>
+  </si>
+  <si>
+    <t>/travel/info</t>
+  </si>
+  <si>
+    <t>메시지 전송</t>
+  </si>
+  <si>
+    <t>/chat</t>
+  </si>
+  <si>
+    <t>topic : String
+type : String
+(text or image)
+content : String(type is text)</t>
+  </si>
+  <si>
+    <t>여행 나가기</t>
+  </si>
+  <si>
+    <t>/travel/quit</t>
+  </si>
+  <si>
+    <t>여행에 유저 초대</t>
+  </si>
+  <si>
+    <t>/travel/invite</t>
+  </si>
+  <si>
+    <t>dst : String
+topic : String
+msg : String</t>
+  </si>
+  <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+  </si>
+  <si>
+    <t>이미 추가된 여행지일 경우 fail</t>
+  </si>
+  <si>
     <t>읽지 않은 채팅 기록 조회</t>
   </si>
   <si>
@@ -335,58 +353,7 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>여행 나가기</t>
-  </si>
-  <si>
-    <t>/travel/quit</t>
-  </si>
-  <si>
-    <t>메시지 전송</t>
-  </si>
-  <si>
-    <t>/chat</t>
-  </si>
-  <si>
-    <t>topic : String
-type : String
-(text or image)
-content : String(type is text)</t>
-  </si>
-  <si>
     <t>여행 모드</t>
-  </si>
-  <si>
-    <t>여행 초대 수락</t>
-  </si>
-  <si>
-    <t>/travel/accept</t>
-  </si>
-  <si>
-    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
-  </si>
-  <si>
-    <t>/travel</t>
-  </si>
-  <si>
-    <t>title : String</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
-  </si>
-  <si>
-    <t>여행 초대 거절</t>
-  </si>
-  <si>
-    <t>/travel/refuse</t>
-  </si>
-  <si>
-    <t>활성화된 여행 리스트 조회</t>
-  </si>
-  <si>
-    <t>topic : String
-title : String
-last_idx : int
-(JSONArray)</t>
   </si>
   <si>
     <t>초대받은 여행 리스트 조회</t>
@@ -401,6 +368,39 @@
 (JSONArray)</t>
   </si>
   <si>
+    <t>여행 초대 수락</t>
+  </si>
+  <si>
+    <t>/travel/accept</t>
+  </si>
+  <si>
+    <t>여행 초대 거절</t>
+  </si>
+  <si>
+    <t>/travel/refuse</t>
+  </si>
+  <si>
+    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
+  </si>
+  <si>
+    <t>/travel</t>
+  </si>
+  <si>
+    <t>title : String</t>
+  </si>
+  <si>
+    <t>활성화된 여행 리스트 조회</t>
+  </si>
+  <si>
+    <t>topic : String
+title : String
+last_idx : int
+(JSONArray)</t>
+  </si>
+  <si>
+    <t>여행 삭제</t>
+  </si>
+  <si>
     <t>아이디 찾기</t>
   </si>
   <si>
@@ -423,10 +423,28 @@
     <t>사용자</t>
   </si>
   <si>
+    <t>ID 기반 사용자 정보 조회</t>
+  </si>
+  <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t>id : String
+phone_number : String
+email : String
+name : String</t>
+  </si>
+  <si>
+    <t>프로필 사진 조회</t>
+  </si>
+  <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
+    <t>프로필 이미지 파일</t>
+  </si>
+  <si>
     <t>내 정보</t>
-  </si>
-  <si>
-    <t>/user</t>
   </si>
   <si>
     <t>id : String
@@ -437,15 +455,6 @@
 travel_req_count : int</t>
   </si>
   <si>
-    <t>ID 기반 사용자 정보 조회</t>
-  </si>
-  <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String</t>
-  </si>
-  <si>
     <t>마이페이지</t>
   </si>
   <si>
@@ -457,15 +466,6 @@
 name : String</t>
   </si>
   <si>
-    <t>프로필 사진 조회</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>프로필 이미지 파일</t>
-  </si>
-  <si>
     <t>프로필 이미지 세팅</t>
   </si>
   <si>
@@ -487,6 +487,12 @@
     <t>id : String
 email : String
 name : String</t>
+  </si>
+  <si>
+    <t>미정</t>
+  </si>
+  <si>
+    <t>/test</t>
   </si>
   <si>
     <t>계정</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -648,7 +654,7 @@
         <v>204.0</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -656,13 +662,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -671,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
         <v>201.0</v>
@@ -694,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -724,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -732,37 +738,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -770,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -785,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
         <v>201.0</v>
@@ -797,7 +803,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -808,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -823,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>201.0</v>
@@ -838,7 +844,7 @@
         <v>204.0</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -928,7 +934,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -946,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" t="n">
         <v>204.0</v>
@@ -960,13 +966,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -975,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
         <v>201.0</v>
@@ -998,13 +1004,13 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1013,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
         <v>201.0</v>
@@ -1036,19 +1042,19 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -1060,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>204.0</v>
@@ -1074,19 +1080,19 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -1115,7 +1121,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1124,13 +1130,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -1139,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1153,7 +1159,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -1177,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="K16" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1188,10 +1194,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -1200,13 +1206,13 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
       <c r="H17" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1238,22 +1244,22 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
       <c r="K18" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1264,19 +1270,19 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -1288,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
         <v>204.0</v>
@@ -1314,22 +1320,22 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H20" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1343,7 +1349,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1358,19 +1364,19 @@
         <v>76</v>
       </c>
       <c r="H21" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="K21" t="n">
         <v>204.0</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1381,7 +1387,7 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>79</v>
@@ -1393,16 +1399,16 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H22" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
@@ -1416,31 +1422,31 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
       <c r="H23" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I23" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
@@ -1454,14 +1460,14 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="n">
         <v>200.0</v>
@@ -1478,10 +1484,10 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1492,23 +1498,23 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
       <c r="H25" t="n">
         <v>201.0</v>
       </c>
@@ -1516,10 +1522,10 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="K25" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1530,37 +1536,37 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L26" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -1568,34 +1574,34 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
         <v>94</v>
       </c>
-      <c r="H27" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1609,31 +1615,31 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
         <v>97</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1659,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H29" t="n">
         <v>201.0</v>
@@ -1668,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -1682,25 +1688,25 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="H30" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -1735,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H31" t="n">
         <v>201.0</v>
@@ -1744,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -1758,13 +1764,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -1782,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K32" t="n">
         <v>204.0</v>
@@ -1796,19 +1802,19 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -1820,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="K33" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1834,7 +1840,7 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1887,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" t="n">
         <v>201.0</v>
@@ -1913,7 +1919,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
@@ -1925,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H36" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -1951,10 +1957,10 @@
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -1963,19 +1969,19 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -1986,13 +1992,13 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2013,7 +2019,7 @@
         <v>122</v>
       </c>
       <c r="K38" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2068,7 +2074,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2115,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" t="n">
         <v>201.0</v>
@@ -2138,7 +2144,7 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2176,42 +2182,42 @@
         <v>133</v>
       </c>
       <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>134</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>135</v>
-      </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="H43" t="n">
-        <v>201.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="K43" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
         <v>136</v>
@@ -2229,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="H44" t="n">
         <v>201.0</v>
@@ -2244,36 +2250,36 @@
         <v>204.0</v>
       </c>
       <c r="L44" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
         <v>140</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>142</v>
-      </c>
       <c r="H45" t="n">
         <v>201.0</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -2282,6 +2288,44 @@
         <v>204.0</v>
       </c>
       <c r="L45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="L46" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Daejeon_People_Server/API Document.xlsx
+++ b/Daejeon_People_Server/API Document.xlsx
@@ -53,35 +53,13 @@
     <t>회원가입</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/signup/email/demand</t>
+    <t>/signup</t>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>이메일 중복 시 fail</t>
-  </si>
-  <si>
-    <t>이메일 인증번호 확인</t>
-  </si>
-  <si>
-    <t>/signup/email/verify</t>
-  </si>
-  <si>
-    <t>email : String
-code : String</t>
-  </si>
-  <si>
-    <t>/signup</t>
   </si>
   <si>
     <t>id : String
@@ -104,6 +82,18 @@
     <t>핸드폰 번호 중복 시 fail</t>
   </si>
   <si>
+    <t>이메일 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/email/demand</t>
+  </si>
+  <si>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>이메일 중복 시 fail</t>
+  </si>
+  <si>
     <t>ID 중복 체크</t>
   </si>
   <si>
@@ -111,6 +101,16 @@
   </si>
   <si>
     <t>id : String</t>
+  </si>
+  <si>
+    <t>이메일 인증번호 확인</t>
+  </si>
+  <si>
+    <t>/signup/email/verify</t>
+  </si>
+  <si>
+    <t>email : String
+code : String</t>
   </si>
   <si>
     <t>핸드폰 인증번호 확인</t>
@@ -126,28 +126,44 @@
     <t>친구</t>
   </si>
   <si>
+    <t>친구 요청 목록 조회</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/friend/request</t>
+  </si>
+  <si>
+    <t>requester_id : String
+date : String
+phone_number : String
+email : String
+name : String</t>
+  </si>
+  <si>
+    <t>친구 요청 수락</t>
+  </si>
+  <si>
+    <t>/friend/accept</t>
+  </si>
+  <si>
+    <t>requester_id : String</t>
+  </si>
+  <si>
     <t>친구 요청</t>
   </si>
   <si>
-    <t>/friend/request</t>
-  </si>
-  <si>
     <t>dst : String</t>
   </si>
   <si>
-    <t>친구 요청 수락</t>
-  </si>
-  <si>
-    <t>/friend/accept</t>
-  </si>
-  <si>
-    <t>requester_id : String</t>
+    <t>친구 요청 거절</t>
+  </si>
+  <si>
+    <t>/friend/refuse</t>
   </si>
   <si>
     <t>친구 목록</t>
-  </si>
-  <si>
-    <t>GET</t>
   </si>
   <si>
     <t>/friend</t>
@@ -160,26 +176,10 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>친구 요청 거절</t>
-  </si>
-  <si>
-    <t>/friend/refuse</t>
-  </si>
-  <si>
     <t>친구 삭제</t>
   </si>
   <si>
     <t>/friend/delete</t>
-  </si>
-  <si>
-    <t>친구 요청 목록 조회</t>
-  </si>
-  <si>
-    <t>requester_id : String
-date : String
-phone_number : String
-email : String
-name : String</t>
   </si>
   <si>
     <t>사용자 검색</t>
@@ -201,25 +201,46 @@
     <t>위시리스트</t>
   </si>
   <si>
+    <t>위시리스트 추가</t>
+  </si>
+  <si>
+    <t>/wish</t>
+  </si>
+  <si>
+    <t>content_id : int</t>
+  </si>
+  <si>
+    <t>위시리스트에서 여행지 삭제</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
     <t>위시리스트 조회</t>
   </si>
   <si>
-    <t>/wish</t>
-  </si>
-  <si>
-    <t>content_id : int</t>
-  </si>
-  <si>
-    <t>위시리스트에서 여행지 삭제</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>위시리스트 추가</t>
-  </si>
-  <si>
     <t>여행지 정보</t>
+  </si>
+  <si>
+    <t>카테고리 없는 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list/total</t>
+  </si>
+  <si>
+    <t>sort_type : int
+page : int</t>
+  </si>
+  <si>
+    <t>content_id : int
+title : String
+wish : boolean
+wish_count : int
+address : String
+category : String
+image : String
+mapx : double
+mapy : double</t>
   </si>
   <si>
     <t>여행지 세부 정보 조회</t>
@@ -251,37 +272,51 @@
 page : int</t>
   </si>
   <si>
-    <t>content_id : int
-title : String
-wish : boolean
-wish_count : int
-address : String
-category : String
-image : String
-mapx : double
-mapy : double</t>
-  </si>
-  <si>
-    <t>카테고리 없는 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list/total</t>
-  </si>
-  <si>
-    <t>sort_type : int
-page : int</t>
-  </si>
-  <si>
     <t>여행 모드 내부</t>
   </si>
   <si>
+    <t>여행에 유저 초대</t>
+  </si>
+  <si>
+    <t>/travel/invite</t>
+  </si>
+  <si>
+    <t>dst : String
+topic : String
+msg : String</t>
+  </si>
+  <si>
+    <t>메시지 전송</t>
+  </si>
+  <si>
+    <t>/chat</t>
+  </si>
+  <si>
+    <t>topic : String
+type : String
+(text or image)
+content : String(type is text)</t>
+  </si>
+  <si>
+    <t>여행 나가기</t>
+  </si>
+  <si>
+    <t>/travel/quit</t>
+  </si>
+  <si>
+    <t>topic : String</t>
+  </si>
+  <si>
+    <t>여행(채팅방) 정보 조회</t>
+  </si>
+  <si>
+    <t>/travel/info</t>
+  </si>
+  <si>
     <t>지도에 추가된 핀포인트 조회</t>
   </si>
   <si>
     <t>/map</t>
-  </si>
-  <si>
-    <t>topic : String</t>
   </si>
   <si>
     <t>content_id : int
@@ -291,51 +326,6 @@
 mapy : double</t>
   </si>
   <si>
-    <t>여행(채팅방) 정보 조회</t>
-  </si>
-  <si>
-    <t>/travel/info</t>
-  </si>
-  <si>
-    <t>메시지 전송</t>
-  </si>
-  <si>
-    <t>/chat</t>
-  </si>
-  <si>
-    <t>topic : String
-type : String
-(text or image)
-content : String(type is text)</t>
-  </si>
-  <si>
-    <t>여행 나가기</t>
-  </si>
-  <si>
-    <t>/travel/quit</t>
-  </si>
-  <si>
-    <t>여행에 유저 초대</t>
-  </si>
-  <si>
-    <t>/travel/invite</t>
-  </si>
-  <si>
-    <t>dst : String
-topic : String
-msg : String</t>
-  </si>
-  <si>
-    <t>지도에 여행지 추가</t>
-  </si>
-  <si>
-    <t>topic : String
-content_id : int</t>
-  </si>
-  <si>
-    <t>이미 추가된 여행지일 경우 fail</t>
-  </si>
-  <si>
     <t>읽지 않은 채팅 기록 조회</t>
   </si>
   <si>
@@ -353,7 +343,50 @@
 (JSONArray)</t>
   </si>
   <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+  </si>
+  <si>
+    <t>이미 추가된 여행지일 경우 fail</t>
+  </si>
+  <si>
     <t>여행 모드</t>
+  </si>
+  <si>
+    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
+  </si>
+  <si>
+    <t>/travel</t>
+  </si>
+  <si>
+    <t>title : String</t>
+  </si>
+  <si>
+    <t>활성화된 여행 리스트 조회</t>
+  </si>
+  <si>
+    <t>topic : String
+title : String
+last_idx : int
+(JSONArray)</t>
+  </si>
+  <si>
+    <t>여행 삭제</t>
+  </si>
+  <si>
+    <t>여행 초대 수락</t>
+  </si>
+  <si>
+    <t>/travel/accept</t>
+  </si>
+  <si>
+    <t>여행 초대 거절</t>
+  </si>
+  <si>
+    <t>/travel/refuse</t>
   </si>
   <si>
     <t>초대받은 여행 리스트 조회</t>
@@ -368,40 +401,13 @@
 (JSONArray)</t>
   </si>
   <si>
-    <t>여행 초대 수락</t>
-  </si>
-  <si>
-    <t>/travel/accept</t>
-  </si>
-  <si>
-    <t>여행 초대 거절</t>
-  </si>
-  <si>
-    <t>/travel/refuse</t>
-  </si>
-  <si>
-    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
-  </si>
-  <si>
-    <t>/travel</t>
-  </si>
-  <si>
-    <t>title : String</t>
-  </si>
-  <si>
-    <t>활성화된 여행 리스트 조회</t>
-  </si>
-  <si>
-    <t>topic : String
-title : String
-last_idx : int
-(JSONArray)</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
-  </si>
-  <si>
     <t>아이디 찾기</t>
+  </si>
+  <si>
+    <t>인증번호 확인 후 이메일로 아이디 전송</t>
+  </si>
+  <si>
+    <t>/find/id/verify</t>
   </si>
   <si>
     <t>/find/id/demand</t>
@@ -414,37 +420,13 @@
     <t>입력한 데이터의 계정이 존재하지 않을 경우 fail</t>
   </si>
   <si>
-    <t>인증번호 확인 후 이메일로 아이디 전송</t>
-  </si>
-  <si>
-    <t>/find/id/verify</t>
-  </si>
-  <si>
     <t>사용자</t>
   </si>
   <si>
-    <t>ID 기반 사용자 정보 조회</t>
+    <t>내 정보</t>
   </si>
   <si>
     <t>/user</t>
-  </si>
-  <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String</t>
-  </si>
-  <si>
-    <t>프로필 사진 조회</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>프로필 이미지 파일</t>
-  </si>
-  <si>
-    <t>내 정보</t>
   </si>
   <si>
     <t>id : String
@@ -455,6 +437,15 @@
 travel_req_count : int</t>
   </si>
   <si>
+    <t>ID 기반 사용자 정보 조회</t>
+  </si>
+  <si>
+    <t>id : String
+phone_number : String
+email : String
+name : String</t>
+  </si>
+  <si>
     <t>마이페이지</t>
   </si>
   <si>
@@ -466,6 +457,15 @@
 name : String</t>
   </si>
   <si>
+    <t>프로필 사진 조회</t>
+  </si>
+  <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
+    <t>프로필 이미지 파일</t>
+  </si>
+  <si>
     <t>프로필 이미지 세팅</t>
   </si>
   <si>
@@ -498,12 +498,6 @@
     <t>계정</t>
   </si>
   <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>/logout</t>
-  </si>
-  <si>
     <t>비밀번호 변경</t>
   </si>
   <si>
@@ -531,6 +525,12 @@
   <si>
     <t>Set-Cookie
 (key=UserSession)</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>/logout</t>
   </si>
 </sst>
 </file>
@@ -624,37 +624,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="n">
         <v>201.0</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -662,37 +662,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -700,19 +700,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -721,16 +721,16 @@
         <v>201.0</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -738,37 +738,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
         <v>201.0</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -779,16 +779,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -797,16 +797,16 @@
         <v>201.0</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>204.0</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -817,16 +817,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -835,16 +835,16 @@
         <v>201.0</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
         <v>204.0</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -855,34 +855,34 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -890,37 +890,37 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
         <v>201.0</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
         <v>0.0</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -928,37 +928,37 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
       <c r="H10" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -966,37 +966,37 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>201.0</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1004,37 +1004,37 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1045,34 +1045,34 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1083,25 +1083,25 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>200.0</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
         <v>54</v>
@@ -1110,7 +1110,7 @@
         <v>204.0</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1121,34 +1121,34 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1165,28 +1165,28 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>200.0</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1197,34 +1197,34 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1235,34 +1235,34 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1270,37 +1270,37 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H19" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
         <v>69</v>
       </c>
       <c r="K19" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1311,34 +1311,34 @@
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>200.0</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K20" t="n">
         <v>204.0</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1349,34 +1349,34 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>76</v>
       </c>
       <c r="H21" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1384,37 +1384,37 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
       <c r="H22" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1425,34 +1425,34 @@
         <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>82</v>
       </c>
       <c r="H23" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1463,34 +1463,34 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H24" t="n">
         <v>200.0</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1501,34 +1501,34 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
         <v>87</v>
       </c>
-      <c r="H25" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1539,34 +1539,34 @@
         <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
         <v>201.0</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="K26" t="n">
         <v>204.0</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -1574,19 +1574,19 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -1595,16 +1595,16 @@
         <v>201.0</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
         <v>204.0</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1615,34 +1615,34 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="H28" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K28" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1650,37 +1650,37 @@
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -1688,37 +1688,37 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1729,34 +1729,34 @@
         <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H31" t="n">
         <v>201.0</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1764,37 +1764,37 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H32" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="K32" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1802,37 +1802,37 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>200.0</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1840,37 +1840,37 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H34" t="n">
         <v>201.0</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" t="n">
         <v>204.0</v>
       </c>
       <c r="L34" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1878,37 +1878,37 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
         <v>112</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
       <c r="H35" t="n">
         <v>201.0</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35" t="n">
         <v>204.0</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1919,25 +1919,25 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
         <v>117</v>
@@ -1946,7 +1946,7 @@
         <v>0.0</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1957,34 +1957,34 @@
         <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
         <v>119</v>
       </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>120</v>
-      </c>
       <c r="K37" t="n">
-        <v>204.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1992,37 +1992,37 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
         <v>121</v>
       </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
         <v>200.0</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
         <v>122</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>204.0</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2033,25 +2033,25 @@
         <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>200.0</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
         <v>125</v>
@@ -2060,7 +2060,7 @@
         <v>204.0</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -2071,16 +2071,16 @@
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>127</v>
@@ -2089,16 +2089,16 @@
         <v>201.0</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
       </c>
       <c r="L40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2109,34 +2109,34 @@
         <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H41" t="n">
         <v>201.0</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K41" t="n">
         <v>204.0</v>
       </c>
       <c r="L41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2144,19 +2144,19 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
         <v>132</v>
@@ -2165,16 +2165,16 @@
         <v>201.0</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" t="n">
         <v>204.0</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -2185,7 +2185,7 @@
         <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>134</v>
@@ -2223,34 +2223,34 @@
         <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="H44" t="n">
         <v>201.0</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" t="n">
         <v>204.0</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45">
@@ -2258,37 +2258,37 @@
         <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H45" t="n">
         <v>201.0</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" t="n">
         <v>204.0</v>
       </c>
       <c r="L45" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -2296,37 +2296,37 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
         <v>201.0</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K46" t="n">
         <v>204.0</v>
       </c>
       <c r="L46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
